--- a/IsOp/Lab3/Мой.xlsx
+++ b/IsOp/Lab3/Мой.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="18">
   <si>
     <t xml:space="preserve">b</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;--y2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">Приведение к M-задаче</t>
@@ -191,12 +194,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,7 +215,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,14 +298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="Q14" activeCellId="0" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,6 +755,362 @@
       <c r="J14" s="3" t="n">
         <f aca="false">J9 - $E9 * J$13</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">B18/H18</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">B19/H19</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">B18 / $H$18</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">C18 / $H$18</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">D18 / $H$18</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">E18 / $H$18</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">F18 / $H$18</f>
+        <v>-1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">G18 / $H$18</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">H18 / $H$18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B19 - B$23 * $H19</f>
+        <v>1.99999999999998</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C19 - C$23 * $H19</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">D19 - D$23 * $H19</f>
+        <v>-1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">E19 - E$23 * $H19</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <f aca="false">F19 - F$23 * $H19</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">G19 - G$23 * $H19</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">H19 - H$23 * $H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">B20 - B$23 * $H20</f>
+        <v>160</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">C20 - C$23 * $H20</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">D20 - D$23 * $H20</f>
+        <v>19</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">E20 - E$23 * $H20</f>
+        <v>-4</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">F20 - F$23 * $H20</f>
+        <v>-13</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">G20 - G$23 * $H20</f>
+        <v>17</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">H20 - H$23 * $H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <f aca="false">B23 - $F23 * B$29</f>
+        <v>22</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">C23 - $F23 * C$29</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">D23 - $F23 * D$29</f>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">E23 - $F23 * E$29</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">F23 - $F23 * F$29</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">G23 - $F23 * G$29</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">H23 - $F23 * H$29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <f aca="false">B24 - B$25 * $H24</f>
+        <v>1.99999999999998</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">C24 - C$25 * $H24</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">D24 - D$25 * $H24</f>
+        <v>-1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">E24 - E$25 * $H24</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">F24 - F$25 * $H24</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">G24 - G$25 * $H24</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">H24 - H$25 * $H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <f aca="false">B25 - $F25 * B$29</f>
+        <v>186</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">C25 - $F25 * C$29</f>
+        <v>7</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">D25 - $F25 * D$29</f>
+        <v>5.99999999999997</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">E25 - $F25 * E$29</f>
+        <v>9</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">F25 - $F25 * F$29</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">G25 - $F25 * G$29</f>
+        <v>17</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">H25 - $F25 * H$29</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -762,31 +1125,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U43" activeCellId="0" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -1182,20 +1545,20 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
@@ -1530,7 +1893,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">B24 - $E24 * B$30</f>
@@ -1732,7 +2095,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="n">
         <f aca="false">B30 - $H30 *B$34</f>
@@ -1975,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
